--- a/research/audio_calculation.xlsx
+++ b/research/audio_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Programs\Poissound_flow\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01E3A2-5CA3-49EC-8689-2EE9AB8A191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975A357-3D78-49B9-8CFD-C9773B68A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{0A1E03ED-8DD3-4AE6-AE43-760BDE4590A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A1E03ED-8DD3-4AE6-AE43-760BDE4590A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sr</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>freq resolution</t>
   </si>
 </sst>
 </file>
@@ -155,16 +158,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
@@ -481,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195C0F66-BB62-4057-AB49-99CBB0EDE7B5}">
-  <dimension ref="C3:P5"/>
+  <dimension ref="C3:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,105 +503,154 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="9" max="13" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="P4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="T4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>16000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>G5*4</f>
         <v>1024</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>64</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>256</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>E5/D5 * 1000</f>
         <v>64</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>C5*D5/G5 + 1</f>
         <v>63.5</v>
       </c>
-      <c r="L5">
+      <c r="J5" s="1">
+        <f>D5/(2*F5)</f>
+        <v>125</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="P5">
         <v>900</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <f>F5*(INT(I5)+1)</f>
         <v>4096</v>
       </c>
-      <c r="N5">
+      <c r="R5">
         <v>0.03</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>0.01</v>
       </c>
-      <c r="P5">
-        <f>0.75*(LN(L5/(2*SQRT(M5)*O5*O5)))/(LN(1+N5))</f>
+      <c r="T5">
+        <f>0.75*(LN(P5/(2*SQRT(Q5)*S5*S5)))/(LN(1+R5))</f>
         <v>283.18226784477122</v>
       </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>512</v>
+      </c>
+      <c r="F6" s="1">
+        <v>128</v>
+      </c>
+      <c r="G6" s="1">
+        <v>128</v>
+      </c>
+      <c r="H6" s="1">
+        <f>E6/D6 * 1000</f>
+        <v>32</v>
+      </c>
+      <c r="I6" s="1">
+        <f>C6*D6/G6 + 1</f>
+        <v>126</v>
+      </c>
+      <c r="J6" s="1">
+        <f>D6/(2*F6)</f>
+        <v>62.5</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/research/audio_calculation.xlsx
+++ b/research/audio_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Programs\Poissound_flow\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975A357-3D78-49B9-8CFD-C9773B68A934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA7BDE-C716-476D-B169-ACFBE2C99C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A1E03ED-8DD3-4AE6-AE43-760BDE4590A6}"/>
+    <workbookView xWindow="22965" yWindow="9255" windowWidth="21600" windowHeight="11385" xr2:uid="{0A1E03ED-8DD3-4AE6-AE43-760BDE4590A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>sr</t>
   </si>
@@ -81,6 +103,9 @@
   </si>
   <si>
     <t>freq resolution</t>
+  </si>
+  <si>
+    <t>zmax</t>
   </si>
 </sst>
 </file>
@@ -158,11 +183,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -171,11 +199,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
@@ -492,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195C0F66-BB62-4057-AB49-99CBB0EDE7B5}">
-  <dimension ref="C3:T6"/>
+  <dimension ref="C3:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,24 +532,24 @@
     <col min="18" max="18" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -548,12 +571,9 @@
       <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
       <c r="P4" t="s">
         <v>9</v>
       </c>
@@ -569,8 +589,11 @@
       <c r="T4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -599,11 +622,9 @@
         <f>D5/(2*F5)</f>
         <v>125</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="P5">
-        <v>900</v>
+      <c r="P5" t="e" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">POW(POW(S5,3/2)*POW(POW(1+R5),T5),4/3)*2*SQRT(Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q5">
         <f>F5*(INT(I5)+1)</f>
@@ -615,12 +636,16 @@
       <c r="S5">
         <v>0.01</v>
       </c>
-      <c r="T5">
-        <f>0.75*(LN(P5/(2*SQRT(Q5)*S5*S5)))/(LN(1+R5))</f>
-        <v>283.18226784477122</v>
+      <c r="T5" t="e">
+        <f ca="1">0.75*(LN(P5/(2*SQRT(Q5)*S5*S5)))/(LN(1+R5))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U5" t="e">
+        <f ca="1">SQRT(2/3.14)*S5*POWER((1+R5),T5)</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -648,9 +673,6 @@
         <f>D6/(2*F6)</f>
         <v>62.5</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/research/audio_calculation.xlsx
+++ b/research/audio_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Programs\Poissound_flow\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DA7BDE-C716-476D-B169-ACFBE2C99C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF4CC97-7825-4042-834E-DCF8DB186038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22965" yWindow="9255" windowWidth="21600" windowHeight="11385" xr2:uid="{0A1E03ED-8DD3-4AE6-AE43-760BDE4590A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A1E03ED-8DD3-4AE6-AE43-760BDE4590A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195C0F66-BB62-4057-AB49-99CBB0EDE7B5}">
   <dimension ref="C3:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
